--- a/S2_END_PROJECT/database.xlsx
+++ b/S2_END_PROJECT/database.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="221">
   <si>
     <t>USERNAME</t>
   </si>
@@ -55,15 +56,12 @@
     <t>ROCHER</t>
   </si>
   <si>
-    <t>10</t>
+    <t>100</t>
   </si>
   <si>
     <t>BRU</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>AACHI SAMBAR POWDER</t>
   </si>
   <si>
@@ -673,7 +671,16 @@
     <t>1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Employes</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Pay later Money</t>
   </si>
 </sst>
 </file>
@@ -681,10 +688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,9 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,8 +724,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,44 +742,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,8 +755,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,10 +795,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,9 +810,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,6 +831,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -853,6 +860,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -862,19 +929,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,103 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,49 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,22 +1057,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,21 +1121,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1147,6 +1134,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1155,149 +1162,149 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,15 +1639,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.1809523809524" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.9714285714286" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.2952380952381" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.95238095238095" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.1809523809524" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.9714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.2952380952381" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.95238095238095" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1697,14 +1704,14 @@
   <sheetPr/>
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:2">
@@ -1715,11 +1722,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1728,1277 +1735,1277 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:2">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
       <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:2">
       <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:2">
       <c r="A64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:2">
       <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:2">
       <c r="A70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:2">
       <c r="A75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:2">
       <c r="A76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:2">
       <c r="A77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:2">
       <c r="A84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:2">
       <c r="A87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:2">
       <c r="A89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:2">
       <c r="A90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" customFormat="1" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" customFormat="1" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" customFormat="1" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" customFormat="1" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" customFormat="1" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" customFormat="1" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" customFormat="1" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3010,20 +3017,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A4:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.7142857142857" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3031,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3039,7 +3049,39 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3101,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3069,16 +3111,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="16.2857142857143" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/S2_END_PROJECT/database.xlsx
+++ b/S2_END_PROJECT/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="224">
   <si>
     <t>USERNAME</t>
   </si>
@@ -47,6 +47,12 @@
     <t>u</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>Items</t>
   </si>
   <si>
@@ -95,256 +101,259 @@
     <t>MILK</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>TRESEMME</t>
+  </si>
+  <si>
+    <t>PRIYA PACHADLU</t>
+  </si>
+  <si>
+    <t>tropical fruit</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>whole milk</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>pip fruit</t>
+  </si>
+  <si>
+    <t>other vegetables</t>
+  </si>
+  <si>
+    <t>whole milkY</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>rolls/buns</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>pot plants</t>
+  </si>
+  <si>
+    <t>citrus fruit</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>frankfurter</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>fruit/vegetable juice</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>packaged fruit/vegetables</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>specialty bar</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>butter milk</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>bottled water</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>brown bread</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>hamburger meat</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>root vegetables</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>pastry</t>
+  </si>
+  <si>
+    <t>canned beer</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>berries</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>misc. beverages</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>curd cheese</t>
+  </si>
+  <si>
+    <t>red/blush wine</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>frozen potato products</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>frozen meals</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>herbs</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>detergent</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>processed cheese</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>sparkling wine</t>
+  </si>
+  <si>
+    <t>newspapers</t>
+  </si>
+  <si>
+    <t>curd</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>finished products</t>
+  </si>
+  <si>
+    <t>beverages</t>
+  </si>
+  <si>
+    <t>bottled beer</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>dog food</t>
+  </si>
+  <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>MONSTER</t>
-  </si>
-  <si>
-    <t>TRESEMME</t>
-  </si>
-  <si>
-    <t>PRIYA PACHADLU</t>
-  </si>
-  <si>
-    <t>tropical fruit</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>whole milk</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>pip fruit</t>
-  </si>
-  <si>
-    <t>other vegetables</t>
-  </si>
-  <si>
-    <t>whole milkY</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>rolls/buns</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>pot plants</t>
-  </si>
-  <si>
-    <t>citrus fruit</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>beef</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>frankfurter</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>fruit/vegetable juice</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>packaged fruit/vegetables</t>
-  </si>
-  <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>specialty bar</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>butter milk</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>bottled water</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>yogurt</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>sausage</t>
-  </si>
-  <si>
-    <t>brown bread</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>hamburger meat</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>root vegetables</t>
-  </si>
-  <si>
-    <t>pork</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>pastry</t>
-  </si>
-  <si>
-    <t>canned beer</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>berries</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>misc. beverages</t>
-  </si>
-  <si>
-    <t>ham</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>curd cheese</t>
-  </si>
-  <si>
-    <t>red/blush wine</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>frozen potato products</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>sugar</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>frozen meals</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>herbs</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>soda</t>
-  </si>
-  <si>
-    <t>detergent</t>
-  </si>
-  <si>
-    <t>grapes</t>
-  </si>
-  <si>
-    <t>processed cheese</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>sparkling wine</t>
-  </si>
-  <si>
-    <t>newspapers</t>
-  </si>
-  <si>
-    <t>curd</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>pasta</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>finished products</t>
-  </si>
-  <si>
-    <t>beverages</t>
-  </si>
-  <si>
-    <t>bottled beer</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>dog food</t>
   </si>
   <si>
     <t>specialty chocolate</t>
@@ -689,9 +698,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -710,8 +719,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,6 +744,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,16 +765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,18 +781,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,21 +821,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,9 +841,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,13 +862,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -863,7 +872,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,37 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,127 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,17 +1066,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,6 +1085,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1111,26 +1129,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,166 +1163,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,18 +1645,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.1809523809524" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.9714285714286" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.2952380952381" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.95238095238095" collapsed="true"/>
+    <col min="1" max="1" width="13.1809523809524" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.9714285714286" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.2952380952381" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.95238095238095" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1691,6 +1700,20 @@
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1704,1308 +1727,1308 @@
   <sheetPr/>
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="40.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" customFormat="1" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" customFormat="1" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" customFormat="1" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" customFormat="1" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" customFormat="1" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" customFormat="1" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" customFormat="1" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3017,71 +3040,87 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="21.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3093,34 +3132,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3134,21 +3159,21 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.2857142857143" collapsed="true"/>
+    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/S2_END_PROJECT/database.xlsx
+++ b/S2_END_PROJECT/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="221">
   <si>
     <t>USERNAME</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>Items</t>
@@ -697,9 +688,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -719,39 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +732,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -781,10 +757,41 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,30 +807,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,8 +831,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,6 +846,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -869,6 +860,78 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -878,19 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,25 +959,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,25 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,97 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1061,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,6 +1092,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,54 +1146,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1168,148 +1159,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1645,18 +1636,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.1809523809524" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.9714285714286" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.2952380952381" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.95238095238095" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.1809523809524" customWidth="1"/>
+    <col min="2" max="2" width="11.9714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.2952380952381" customWidth="1"/>
+    <col min="5" max="5" width="9.95238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1686,34 +1677,6 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1733,1302 +1696,1302 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" customFormat="1" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" customFormat="1" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" customFormat="1" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" customFormat="1" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" customFormat="1" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" customFormat="1" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" customFormat="1" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3053,55 +3016,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3109,18 +3072,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3134,8 +3097,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3145,7 +3108,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3159,8 +3122,8 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3170,10 +3133,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/S2_END_PROJECT/database.xlsx
+++ b/S2_END_PROJECT/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="220">
   <si>
     <t>USERNAME</t>
   </si>
@@ -44,6 +44,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>Items</t>
   </si>
   <si>
@@ -665,22 +668,16 @@
     <t>qut.</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Employes</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Pay later Money</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Employes</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Pay later Money</t>
   </si>
 </sst>
 </file>
@@ -689,9 +686,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -710,10 +707,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,25 +724,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,14 +755,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,17 +763,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,6 +789,37 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,24 +844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,7 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +872,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,121 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,37 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1058,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,6 +1078,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1092,6 +1104,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,9 +1134,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,183 +1151,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,18 +1633,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.1809523809524" customWidth="1"/>
-    <col min="2" max="2" width="11.9714285714286" customWidth="1"/>
-    <col min="4" max="4" width="11.2952380952381" customWidth="1"/>
-    <col min="5" max="5" width="9.95238095238095" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.1809523809524" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.9714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.2952380952381" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.95238095238095" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1677,6 +1674,20 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1696,1302 +1707,1302 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" customFormat="1" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" customFormat="1" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" customFormat="1" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" customFormat="1" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" customFormat="1" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" customFormat="1" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" customFormat="1" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3003,87 +3014,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3103,12 +3058,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3122,21 +3077,21 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="16.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/S2_END_PROJECT/database.xlsx
+++ b/S2_END_PROJECT/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="214">
   <si>
     <t>USERNAME</t>
   </si>
@@ -32,21 +32,6 @@
     <t>PHONE NO</t>
   </si>
   <si>
-    <t>uday</t>
-  </si>
-  <si>
-    <t>krishna</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -675,9 +660,6 @@
   </si>
   <si>
     <t>Pay later Money</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -685,8 +667,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -709,15 +691,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,6 +699,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,22 +722,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,7 +776,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,13 +791,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +810,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -860,7 +842,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +938,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,36 +986,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -932,25 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,79 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,30 +1033,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1134,11 +1092,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,20 +1122,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,7 +1156,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,125 +1165,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,18 +1615,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.1809523809524" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.9714285714286" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.2952380952381" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.95238095238095" collapsed="true"/>
+    <col min="1" max="1" width="13.1809523809524" customWidth="1"/>
+    <col min="2" max="2" width="11.9714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.2952380952381" customWidth="1"/>
+    <col min="5" max="5" width="9.95238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1661,34 +1643,6 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1707,1302 +1661,1302 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="40.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" customFormat="1" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" customFormat="1" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" customFormat="1" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" customFormat="1" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" customFormat="1" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" customFormat="1" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" customFormat="1" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3014,31 +2968,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3058,12 +3004,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3083,15 +3029,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.2857142857143" collapsed="true"/>
+    <col min="2" max="2" width="16.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
